--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_9b.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_9b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B134D9FE-B599-1148-AF4B-7E1A6BC70939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A764FFE-EB17-2245-99E3-10A011CCCD2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="620" windowWidth="25040" windowHeight="14300" xr2:uid="{EA279CE4-528C-9A4D-836E-2A264EADB96F}"/>
+    <workbookView xWindow="8460" yWindow="4380" windowWidth="25040" windowHeight="14300" xr2:uid="{EA279CE4-528C-9A4D-836E-2A264EADB96F}"/>
   </bookViews>
   <sheets>
     <sheet name="A Study File" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -101,21 +101,9 @@
     <t>RANK</t>
   </si>
   <si>
-    <t>CRFGL_USE</t>
-  </si>
-  <si>
-    <t>SDTM_USE</t>
-  </si>
-  <si>
-    <t>ADAM_USE</t>
-  </si>
-  <si>
     <t>ED_USE</t>
   </si>
   <si>
-    <t>STUDY_USE</t>
-  </si>
-  <si>
     <t>INACTIVE_F</t>
   </si>
   <si>
@@ -237,6 +225,18 @@
   </si>
   <si>
     <t>SC49501</t>
+  </si>
+  <si>
+    <t>DC_STAGE</t>
+  </si>
+  <si>
+    <t>SDTM_STAGE</t>
+  </si>
+  <si>
+    <t>ADAM_STAGE</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -597,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5786EF0E-D100-3E4E-93AE-8BA5CF0441E5}">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,9 +608,10 @@
     <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="15" max="19" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -654,70 +655,63 @@
         <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>56</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
         <v>7</v>
@@ -728,28 +722,31 @@
       <c r="Q2" t="s">
         <v>7</v>
       </c>
+      <c r="R2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
@@ -758,19 +755,19 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
         <v>7</v>
@@ -781,25 +778,28 @@
       <c r="Q3" t="s">
         <v>7</v>
       </c>
+      <c r="R3" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1</v>
@@ -834,28 +834,31 @@
       <c r="Q4" t="s">
         <v>7</v>
       </c>
+      <c r="R4" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
         <v>2</v>
@@ -864,19 +867,19 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O5" t="s">
         <v>7</v>
@@ -887,28 +890,31 @@
       <c r="Q5" t="s">
         <v>7</v>
       </c>
+      <c r="R5" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
         <v>2</v>
@@ -917,19 +923,19 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s">
         <v>7</v>
@@ -940,28 +946,31 @@
       <c r="Q6" t="s">
         <v>7</v>
       </c>
+      <c r="R6" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
         <v>2</v>
@@ -970,19 +979,19 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s">
         <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O7" t="s">
         <v>7</v>
@@ -993,88 +1002,88 @@
       <c r="Q7" t="s">
         <v>7</v>
       </c>
+      <c r="R7" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
         <v>47</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
         <v>2</v>
@@ -1083,13 +1092,13 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
         <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M9" s="1">
         <v>3</v>
@@ -1105,6 +1114,9 @@
       </c>
       <c r="Q9" t="s">
         <v>7</v>
+      </c>
+      <c r="R9" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
